--- a/BalanceSheet/NTAP_bal.xlsx
+++ b/BalanceSheet/NTAP_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>10000000.0</v>
+        <v>106000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>20000000.0</v>
+        <v>116000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>9000000.0</v>
+        <v>136000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-32000000.0</v>
+        <v>145000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-2000000.0</v>
+        <v>113000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>111000000.0</v>
@@ -1676,19 +1676,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-33000000.0</v>
+        <v>336000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-30000000.0</v>
+        <v>367000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-29000000.0</v>
+        <v>396000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>41000000.0</v>
+        <v>426000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-1000000.0</v>
+        <v>381000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>382000000.0</v>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-1000000.0</v>
+        <v>-224000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>-225000000.0</v>
@@ -2737,7 +2737,7 @@
         <v>-208000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>6000000.0</v>
+        <v>-220000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>-222000000.0</v>
